--- a/data/outputs/elasticity_scenarios_age_group.xlsx
+++ b/data/outputs/elasticity_scenarios_age_group.xlsx
@@ -522,25 +522,25 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3960636.046343898</v>
+        <v>3960306.426054242</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1698149379913574</v>
+        <v>0.1698754578754579</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7614183983881607</v>
+        <v>0.7614807872539833</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2385816016118394</v>
+        <v>0.2385192127460169</v>
       </c>
       <c r="J2" t="n">
-        <v>512111.1046377387</v>
+        <v>512292.9520202714</v>
       </c>
       <c r="K2" t="n">
         <v>0.31974</v>
       </c>
       <c r="L2" t="n">
-        <v>163742.4045968706</v>
+        <v>163800.5484789616</v>
       </c>
     </row>
     <row r="3">
@@ -570,25 +570,25 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2090288.693656103</v>
+        <v>2090618.313945758</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3417202992546328</v>
+        <v>0.341654076069106</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6434169556597414</v>
+        <v>0.6434881853151286</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3565830443402585</v>
+        <v>0.3565118146848713</v>
       </c>
       <c r="J3" t="n">
-        <v>459588.9210641176</v>
+        <v>459623.1919022651</v>
       </c>
       <c r="K3" t="n">
-        <v>0.18792</v>
+        <v>0.18794</v>
       </c>
       <c r="L3" t="n">
-        <v>86365.95004636899</v>
+        <v>86381.58268611171</v>
       </c>
     </row>
     <row r="4">
@@ -618,25 +618,25 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4935513.117398672</v>
+        <v>4935242.067630201</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2125370487964643</v>
+        <v>0.2126120675430394</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6882956059785703</v>
+        <v>0.6881919866760036</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3117043940214296</v>
+        <v>0.3118080133239964</v>
       </c>
       <c r="J4" t="n">
-        <v>722007.9064602394</v>
+        <v>722114.3597261214</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3144</v>
+        <v>0.3146</v>
       </c>
       <c r="L4" t="n">
-        <v>226999.2857910993</v>
+        <v>227177.1775698378</v>
       </c>
     </row>
     <row r="5">
@@ -666,25 +666,25 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2410606.422601329</v>
+        <v>2410877.4723698</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2982085318484607</v>
+        <v>0.2979493365500603</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4819397178396382</v>
+        <v>0.4817713378017124</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5180602821603618</v>
+        <v>0.5182286621982874</v>
       </c>
       <c r="J5" t="n">
-        <v>346448.8251966482</v>
+        <v>346065.6710367714</v>
       </c>
       <c r="K5" t="n">
-        <v>0.23151</v>
+        <v>0.23149</v>
       </c>
       <c r="L5" t="n">
-        <v>80206.36752127601</v>
+        <v>80110.74218830222</v>
       </c>
     </row>
     <row r="6">
@@ -714,25 +714,25 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>12209854.58609926</v>
+        <v>12212952.6156911</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2014451000907588</v>
+        <v>0.2013021194071201</v>
       </c>
       <c r="H6" t="n">
-        <v>0.604502037396809</v>
+        <v>0.6044342482040291</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3954979626031909</v>
+        <v>0.395565751795971</v>
       </c>
       <c r="J6" t="n">
-        <v>1486842.507933107</v>
+        <v>1485997.516714026</v>
       </c>
       <c r="K6" t="n">
-        <v>0.20493</v>
+        <v>0.20502</v>
       </c>
       <c r="L6" t="n">
-        <v>304698.6351507317</v>
+        <v>304659.2108767097</v>
       </c>
     </row>
     <row r="7">
@@ -762,25 +762,25 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>7395250.55390074</v>
+        <v>7392152.524308903</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3297055256696945</v>
+        <v>0.329888551165147</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4097319645710268</v>
+        <v>0.4096002213307511</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5902680354289732</v>
+        <v>0.5903997786692489</v>
       </c>
       <c r="J7" t="n">
-        <v>999030.9995293195</v>
+        <v>998845.5644964637</v>
       </c>
       <c r="K7" t="n">
-        <v>0.14033</v>
+        <v>0.1404</v>
       </c>
       <c r="L7" t="n">
-        <v>140194.0201639494</v>
+        <v>140237.9172553035</v>
       </c>
     </row>
     <row r="8">
@@ -810,25 +810,25 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>512813.8008605385</v>
+        <v>512861.4406231291</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2089357804233698</v>
+        <v>0.2089593221668693</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6664487140502352</v>
+        <v>0.6665359374591471</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3335512859497647</v>
+        <v>0.3334640625408529</v>
       </c>
       <c r="J8" t="n">
-        <v>71406.74856363097</v>
+        <v>71430.77611837292</v>
       </c>
       <c r="K8" t="n">
-        <v>0.14881</v>
+        <v>0.1489</v>
       </c>
       <c r="L8" t="n">
-        <v>10626.03825375392</v>
+        <v>10636.04256402573</v>
       </c>
     </row>
     <row r="9">
@@ -858,25 +858,25 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>293507.8491394616</v>
+        <v>293460.2093768709</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2802927542295957</v>
+        <v>0.2803436375651663</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6222601177193211</v>
+        <v>0.6222983778843957</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3777398822806789</v>
+        <v>0.3777016221156043</v>
       </c>
       <c r="J9" t="n">
-        <v>51192.172165933</v>
+        <v>51196.30246291492</v>
       </c>
       <c r="K9" t="n">
-        <v>0.19537</v>
+        <v>0.19524</v>
       </c>
       <c r="L9" t="n">
-        <v>10001.41467605833</v>
+        <v>9995.56609285951</v>
       </c>
     </row>
     <row r="10">
@@ -906,25 +906,25 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>12649687.16308722</v>
+        <v>13364772.19962982</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02178400300069264</v>
+        <v>0.04975543936582897</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6141579985765711</v>
+        <v>0.6258840916288398</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3858420014234289</v>
+        <v>0.3741159083711601</v>
       </c>
       <c r="J10" t="n">
-        <v>169237.8836125797</v>
+        <v>416194.2150206688</v>
       </c>
       <c r="K10" t="n">
-        <v>0.37322</v>
+        <v>0.34122</v>
       </c>
       <c r="L10" t="n">
-        <v>63162.962921887</v>
+        <v>142013.7900493526</v>
       </c>
     </row>
     <row r="11">
@@ -954,25 +954,25 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>5097586.606912785</v>
+        <v>4382501.570370184</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03024171328097636</v>
+        <v>0.05998983223182511</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5736665712529941</v>
+        <v>0.6332224487605967</v>
       </c>
       <c r="I11" t="n">
-        <v>0.426333428747006</v>
+        <v>0.3667775512394034</v>
       </c>
       <c r="J11" t="n">
-        <v>88436.2966942045</v>
+        <v>166477.6860082676</v>
       </c>
       <c r="K11" t="n">
-        <v>0.38593</v>
+        <v>0.33592</v>
       </c>
       <c r="L11" t="n">
-        <v>34130.21998319434</v>
+        <v>55923.18428389724</v>
       </c>
     </row>
     <row r="12">
@@ -1001,21 +1001,27 @@
           <t>Old Adults (&gt;35)</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>5933766.221012953</v>
+      </c>
       <c r="G12" t="n">
-        <v>0.5201540770669685</v>
+        <v>0.4561842969776609</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4807214066086709</v>
+        <v>0.4819792182088075</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5192785933913292</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
+        <v>0.5180207817911925</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1304665.194443006</v>
+      </c>
       <c r="K12" t="n">
-        <v>0.33557</v>
-      </c>
-      <c r="L12" t="inlineStr"/>
+        <v>0.37522</v>
+      </c>
+      <c r="L12" t="n">
+        <v>489536.4742589048</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1043,21 +1049,27 @@
           <t>Young Adults (16-35)</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>6224905.388987047</v>
+      </c>
       <c r="G13" t="n">
-        <v>0.6361725348294249</v>
+        <v>0.582982183780587</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5229712343049411</v>
+        <v>0.5104143083540865</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4770287656950589</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
+        <v>0.4895856916459135</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1852298.086844459</v>
+      </c>
       <c r="K13" t="n">
-        <v>0.2792</v>
-      </c>
-      <c r="L13" t="inlineStr"/>
+        <v>0.2698</v>
+      </c>
+      <c r="L13" t="n">
+        <v>499750.023830635</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1086,25 +1098,25 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>784382.8510579646</v>
+        <v>784359.4165218238</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1605327407394465</v>
+        <v>0.1606204190419782</v>
       </c>
       <c r="H14" t="n">
-        <v>0.7303220414879269</v>
+        <v>0.730246262806477</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2696779585120732</v>
+        <v>0.2697537371935231</v>
       </c>
       <c r="J14" t="n">
-        <v>91961.51525824949</v>
+        <v>91999.44606515269</v>
       </c>
       <c r="K14" t="n">
-        <v>0.30512</v>
+        <v>0.30522</v>
       </c>
       <c r="L14" t="n">
-        <v>28059.29753559708</v>
+        <v>28080.0709280059</v>
       </c>
     </row>
     <row r="15">
@@ -1134,25 +1146,25 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>412564.0789420353</v>
+        <v>412587.5134781761</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2804877814977229</v>
+        <v>0.2806113221197324</v>
       </c>
       <c r="H15" t="n">
-        <v>0.5683660871486164</v>
+        <v>0.5682717508607841</v>
       </c>
       <c r="I15" t="n">
-        <v>0.4316339128513837</v>
+        <v>0.4317282491392158</v>
       </c>
       <c r="J15" t="n">
-        <v>65770.85937939062</v>
+        <v>65792.64372900871</v>
       </c>
       <c r="K15" t="n">
-        <v>0.20125</v>
+        <v>0.2012</v>
       </c>
       <c r="L15" t="n">
-        <v>13236.38545010236</v>
+        <v>13237.47991827655</v>
       </c>
     </row>
     <row r="16">
@@ -1278,25 +1290,25 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>5087167.142407236</v>
+        <v>5087086.185148654</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2661095172176019</v>
+        <v>0.2661949142791393</v>
       </c>
       <c r="H18" t="n">
-        <v>0.4679688947047583</v>
+        <v>0.4680003230930778</v>
       </c>
       <c r="I18" t="n">
-        <v>0.5320311052952418</v>
+        <v>0.5319996769069223</v>
       </c>
       <c r="J18" t="n">
-        <v>633509.8925888197</v>
+        <v>633745.6659401422</v>
       </c>
       <c r="K18" t="n">
-        <v>0.29736</v>
+        <v>0.29734</v>
       </c>
       <c r="L18" t="n">
-        <v>188380.5016602114</v>
+        <v>188437.9363106419</v>
       </c>
     </row>
     <row r="19">
@@ -1326,25 +1338,25 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2502782.977592765</v>
+        <v>2502863.934851348</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4047332247246497</v>
+        <v>0.4046866771985255</v>
       </c>
       <c r="H19" t="n">
-        <v>0.4156720530824486</v>
+        <v>0.4156839138643391</v>
       </c>
       <c r="I19" t="n">
-        <v>0.5843279469175514</v>
+        <v>0.5843160861356609</v>
       </c>
       <c r="J19" t="n">
-        <v>421058.9240066114</v>
+        <v>421036.13077588</v>
       </c>
       <c r="K19" t="n">
-        <v>0.1536</v>
+        <v>0.15345</v>
       </c>
       <c r="L19" t="n">
-        <v>64674.65072741551</v>
+        <v>64607.99426755879</v>
       </c>
     </row>
     <row r="20">
@@ -1373,21 +1385,27 @@
           <t>Old Adults (&gt;35)</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr"/>
+      <c r="F20" t="n">
+        <v>41916948.93120725</v>
+      </c>
       <c r="G20" t="n">
-        <v>0.2025735136698712</v>
+        <v>0.202529190426316</v>
       </c>
       <c r="H20" t="n">
-        <v>0.588694381504017</v>
+        <v>0.5886826060149347</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4113056184959831</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
+        <v>0.4113173939850654</v>
+      </c>
+      <c r="J20" t="n">
+        <v>4997565.489937045</v>
+      </c>
       <c r="K20" t="n">
-        <v>0.27972</v>
-      </c>
-      <c r="L20" t="inlineStr"/>
+        <v>0.27947</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1396669.627472706</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1415,21 +1433,27 @@
           <t>Young Adults (16-35)</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr"/>
+      <c r="F21" t="n">
+        <v>20343949.07879275</v>
+      </c>
       <c r="G21" t="n">
-        <v>0.3385698061937711</v>
+        <v>0.3386097728836889</v>
       </c>
       <c r="H21" t="n">
-        <v>0.5470894428903158</v>
+        <v>0.5469216834874255</v>
       </c>
       <c r="I21" t="n">
-        <v>0.4529105571096842</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
+        <v>0.4530783165125744</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3767557.511662939</v>
+      </c>
       <c r="K21" t="n">
-        <v>0.28667</v>
-      </c>
-      <c r="L21" t="inlineStr"/>
+        <v>0.28669</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1080121.063018648</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1458,25 +1482,25 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3960636.046343898</v>
+        <v>3960306.426054242</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2181260145544124</v>
+        <v>0.2181684981684981</v>
       </c>
       <c r="H22" t="n">
-        <v>0.7614183983881607</v>
+        <v>0.7614807872539833</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2385816016118394</v>
+        <v>0.2385192127460169</v>
       </c>
       <c r="J22" t="n">
-        <v>657802.874028507</v>
+        <v>657930.1410714026</v>
       </c>
       <c r="K22" t="n">
         <v>0.31974</v>
       </c>
       <c r="L22" t="n">
-        <v>210325.8909418749</v>
+        <v>210366.5833061703</v>
       </c>
     </row>
     <row r="23">
@@ -1506,25 +1530,25 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2090288.693656103</v>
+        <v>2090618.313945758</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4218761126175005</v>
+        <v>0.4218616567036721</v>
       </c>
       <c r="H23" t="n">
-        <v>0.6434169556597414</v>
+        <v>0.6434881853151286</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3565830443402585</v>
+        <v>0.3565118146848713</v>
       </c>
       <c r="J23" t="n">
-        <v>567392.6537098238</v>
+        <v>567525.5024795898</v>
       </c>
       <c r="K23" t="n">
-        <v>0.18792</v>
+        <v>0.18794</v>
       </c>
       <c r="L23" t="n">
-        <v>106624.4274851501</v>
+        <v>106660.7429360141</v>
       </c>
     </row>
     <row r="24">
@@ -1554,25 +1578,25 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>4935513.117398672</v>
+        <v>4935242.067630201</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2594940436791463</v>
+        <v>0.2595016775754909</v>
       </c>
       <c r="H24" t="n">
-        <v>0.6882956059785703</v>
+        <v>0.6881919866760036</v>
       </c>
       <c r="I24" t="n">
-        <v>0.3117043940214296</v>
+        <v>0.3118080133239964</v>
       </c>
       <c r="J24" t="n">
-        <v>881525.1377424751</v>
+        <v>881369.9519306278</v>
       </c>
       <c r="K24" t="n">
-        <v>0.3144</v>
+        <v>0.3146</v>
       </c>
       <c r="L24" t="n">
-        <v>277151.5033062342</v>
+        <v>277278.9868773755</v>
       </c>
     </row>
     <row r="25">
@@ -1602,25 +1626,25 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2410606.422601329</v>
+        <v>2410877.4723698</v>
       </c>
       <c r="G25" t="n">
-        <v>0.367197305044984</v>
+        <v>0.3668677121029353</v>
       </c>
       <c r="H25" t="n">
-        <v>0.4819397178396382</v>
+        <v>0.4817713378017124</v>
       </c>
       <c r="I25" t="n">
-        <v>0.5180602821603618</v>
+        <v>0.5182286621982874</v>
       </c>
       <c r="J25" t="n">
-        <v>426597.7038271201</v>
+        <v>426113.7898163971</v>
       </c>
       <c r="K25" t="n">
-        <v>0.23151</v>
+        <v>0.23149</v>
       </c>
       <c r="L25" t="n">
-        <v>98761.63441301658</v>
+        <v>98641.08120459777</v>
       </c>
     </row>
     <row r="26">
@@ -1650,25 +1674,25 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>12209854.58609926</v>
+        <v>12212952.6156911</v>
       </c>
       <c r="G26" t="n">
-        <v>0.278945918316161</v>
+        <v>0.2787920764648843</v>
       </c>
       <c r="H26" t="n">
-        <v>0.604502037396809</v>
+        <v>0.6044342482040291</v>
       </c>
       <c r="I26" t="n">
-        <v>0.3954979626031909</v>
+        <v>0.395565751795971</v>
       </c>
       <c r="J26" t="n">
-        <v>2058866.900113452</v>
+        <v>2058022.70997705</v>
       </c>
       <c r="K26" t="n">
-        <v>0.20493</v>
+        <v>0.20502</v>
       </c>
       <c r="L26" t="n">
-        <v>421923.5938402496</v>
+        <v>421935.8159994949</v>
       </c>
     </row>
     <row r="27">
@@ -1698,25 +1722,25 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>7395250.55390074</v>
+        <v>7392152.524308903</v>
       </c>
       <c r="G27" t="n">
-        <v>0.4106852151020361</v>
+        <v>0.4109422492401216</v>
       </c>
       <c r="H27" t="n">
-        <v>0.4097319645710268</v>
+        <v>0.4096002213307511</v>
       </c>
       <c r="I27" t="n">
-        <v>0.5902680354289732</v>
+        <v>0.5903997786692489</v>
       </c>
       <c r="J27" t="n">
-        <v>1244405.170650171</v>
+        <v>1244262.165109845</v>
       </c>
       <c r="K27" t="n">
-        <v>0.14033</v>
+        <v>0.1404</v>
       </c>
       <c r="L27" t="n">
-        <v>174627.3775973385</v>
+        <v>174694.4079814223</v>
       </c>
     </row>
     <row r="28">
@@ -1746,25 +1770,25 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>512813.8008605385</v>
+        <v>512861.4406231291</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2986506495007515</v>
+        <v>0.2986309967442043</v>
       </c>
       <c r="H28" t="n">
-        <v>0.6664487140502352</v>
+        <v>0.6665359374591471</v>
       </c>
       <c r="I28" t="n">
-        <v>0.3335512859497647</v>
+        <v>0.3334640625408529</v>
       </c>
       <c r="J28" t="n">
-        <v>102068.0698827779</v>
+        <v>102084.1934652099</v>
       </c>
       <c r="K28" t="n">
-        <v>0.14881</v>
+        <v>0.1489</v>
       </c>
       <c r="L28" t="n">
-        <v>15188.74947925618</v>
+        <v>15200.33640696975</v>
       </c>
     </row>
     <row r="29">
@@ -1794,25 +1818,25 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>293507.8491394616</v>
+        <v>293460.2093768709</v>
       </c>
       <c r="G29" t="n">
-        <v>0.3985935393738546</v>
+        <v>0.3987076877891181</v>
       </c>
       <c r="H29" t="n">
-        <v>0.6222601177193211</v>
+        <v>0.6222983778843957</v>
       </c>
       <c r="I29" t="n">
-        <v>0.3777398822806789</v>
+        <v>0.3777016221156043</v>
       </c>
       <c r="J29" t="n">
-        <v>72798.41802525069</v>
+        <v>72811.92309419277</v>
       </c>
       <c r="K29" t="n">
-        <v>0.19537</v>
+        <v>0.19524</v>
       </c>
       <c r="L29" t="n">
-        <v>14222.62692959323</v>
+        <v>14215.7998649102</v>
       </c>
     </row>
     <row r="30">
@@ -1842,25 +1866,25 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>12649687.16308722</v>
+        <v>13364772.19962982</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03312026625589364</v>
+        <v>0.07106313599820094</v>
       </c>
       <c r="H30" t="n">
-        <v>0.6141579985765711</v>
+        <v>0.6258840916288398</v>
       </c>
       <c r="I30" t="n">
-        <v>0.3858420014234289</v>
+        <v>0.3741159083711601</v>
       </c>
       <c r="J30" t="n">
-        <v>257308.2534763862</v>
+        <v>594428.7997583338</v>
       </c>
       <c r="K30" t="n">
-        <v>0.37322</v>
+        <v>0.34122</v>
       </c>
       <c r="L30" t="n">
-        <v>96032.58636245686</v>
+        <v>202830.9950535387</v>
       </c>
     </row>
     <row r="31">
@@ -1890,25 +1914,25 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>5097586.606912785</v>
+        <v>4382501.570370184</v>
       </c>
       <c r="G31" t="n">
-        <v>0.07483961996985768</v>
+        <v>0.09362819861040501</v>
       </c>
       <c r="H31" t="n">
-        <v>0.5736665712529941</v>
+        <v>0.6332224487605967</v>
       </c>
       <c r="I31" t="n">
-        <v>0.426333428747006</v>
+        <v>0.3667775512394034</v>
       </c>
       <c r="J31" t="n">
-        <v>218854.6255512335</v>
+        <v>259827.4619196831</v>
       </c>
       <c r="K31" t="n">
-        <v>0.38593</v>
+        <v>0.33592</v>
       </c>
       <c r="L31" t="n">
-        <v>84462.56563898754</v>
+        <v>87281.24100805997</v>
       </c>
     </row>
     <row r="32">
@@ -1937,21 +1961,27 @@
           <t>Old Adults (&gt;35)</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>5933766.221012953</v>
+      </c>
       <c r="G32" t="n">
-        <v>0.5761144228362065</v>
+        <v>0.5102250328515111</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4807214066086709</v>
+        <v>0.4819792182088075</v>
       </c>
       <c r="I32" t="n">
-        <v>0.5192785933913292</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
+        <v>0.5180207817911925</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1459219.105315902</v>
+      </c>
       <c r="K32" t="n">
-        <v>0.33557</v>
-      </c>
-      <c r="L32" t="inlineStr"/>
+        <v>0.37522</v>
+      </c>
+      <c r="L32" t="n">
+        <v>547528.1926966326</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1979,21 +2009,27 @@
           <t>Young Adults (16-35)</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>6224905.388987047</v>
+      </c>
       <c r="G33" t="n">
-        <v>0.7297467972696948</v>
+        <v>0.6802690914467361</v>
       </c>
       <c r="H33" t="n">
-        <v>0.5229712343049411</v>
+        <v>0.5104143083540865</v>
       </c>
       <c r="I33" t="n">
-        <v>0.4770287656950589</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
+        <v>0.4895856916459135</v>
+      </c>
+      <c r="J33" t="n">
+        <v>2161405.90859025</v>
+      </c>
       <c r="K33" t="n">
-        <v>0.2792</v>
-      </c>
-      <c r="L33" t="inlineStr"/>
+        <v>0.2698</v>
+      </c>
+      <c r="L33" t="n">
+        <v>583147.3141376494</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2022,25 +2058,25 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>784382.8510579646</v>
+        <v>784359.4165218238</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2169716077841765</v>
+        <v>0.2170356111645813</v>
       </c>
       <c r="H34" t="n">
-        <v>0.7303220414879269</v>
+        <v>0.730246262806477</v>
       </c>
       <c r="I34" t="n">
-        <v>0.2696779585120732</v>
+        <v>0.2697537371935231</v>
       </c>
       <c r="J34" t="n">
-        <v>124292.6379250969</v>
+        <v>124312.6877805924</v>
       </c>
       <c r="K34" t="n">
-        <v>0.30512</v>
+        <v>0.30522</v>
       </c>
       <c r="L34" t="n">
-        <v>37924.16968370557</v>
+        <v>37942.7185643924</v>
       </c>
     </row>
     <row r="35">
@@ -2070,25 +2106,25 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>412564.0789420353</v>
+        <v>412587.5134781761</v>
       </c>
       <c r="G35" t="n">
-        <v>0.3904636527984975</v>
+        <v>0.3907578223910292</v>
       </c>
       <c r="H35" t="n">
-        <v>0.5683660871486164</v>
+        <v>0.5682717508607841</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4316339128513837</v>
+        <v>0.4317282491392158</v>
       </c>
       <c r="J35" t="n">
-        <v>91558.81893978929</v>
+        <v>91617.79360394672</v>
       </c>
       <c r="K35" t="n">
-        <v>0.20125</v>
+        <v>0.2012</v>
       </c>
       <c r="L35" t="n">
-        <v>18426.2123116326</v>
+        <v>18433.50007311408</v>
       </c>
     </row>
     <row r="36">
@@ -2214,25 +2250,25 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>5087167.142407236</v>
+        <v>5087086.185148654</v>
       </c>
       <c r="G38" t="n">
-        <v>0.3469838927384944</v>
+        <v>0.3470831895063858</v>
       </c>
       <c r="H38" t="n">
-        <v>0.4679688947047583</v>
+        <v>0.4680003230930778</v>
       </c>
       <c r="I38" t="n">
-        <v>0.5320311052952418</v>
+        <v>0.5319996769069223</v>
       </c>
       <c r="J38" t="n">
-        <v>826042.3412029481</v>
+        <v>826321.0725344451</v>
       </c>
       <c r="K38" t="n">
-        <v>0.29736</v>
+        <v>0.29734</v>
       </c>
       <c r="L38" t="n">
-        <v>245631.9505801087</v>
+        <v>245698.3077073919</v>
       </c>
     </row>
     <row r="39">
@@ -2262,25 +2298,25 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2502782.977592765</v>
+        <v>2502863.934851348</v>
       </c>
       <c r="G39" t="n">
-        <v>0.4789078773747082</v>
+        <v>0.4788704581358609</v>
       </c>
       <c r="H39" t="n">
-        <v>0.4156720530824486</v>
+        <v>0.4156839138643391</v>
       </c>
       <c r="I39" t="n">
-        <v>0.5843279469175514</v>
+        <v>0.5843160861356609</v>
       </c>
       <c r="J39" t="n">
-        <v>498225.5550748801</v>
+        <v>498216.9569607233</v>
       </c>
       <c r="K39" t="n">
-        <v>0.1536</v>
+        <v>0.15345</v>
       </c>
       <c r="L39" t="n">
-        <v>76527.44525950158</v>
+        <v>76451.392045623</v>
       </c>
     </row>
     <row r="40">
@@ -2309,21 +2345,27 @@
           <t>Old Adults (&gt;35)</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr"/>
+      <c r="F40" t="n">
+        <v>41916948.93120725</v>
+      </c>
       <c r="G40" t="n">
-        <v>0.2633461206548979</v>
+        <v>0.2632957058070522</v>
       </c>
       <c r="H40" t="n">
-        <v>0.588694381504017</v>
+        <v>0.5886826060149347</v>
       </c>
       <c r="I40" t="n">
-        <v>0.4113056184959831</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
+        <v>0.4113173939850654</v>
+      </c>
+      <c r="J40" t="n">
+        <v>6497026.577848629</v>
+      </c>
       <c r="K40" t="n">
-        <v>0.27972</v>
-      </c>
-      <c r="L40" t="inlineStr"/>
+        <v>0.27947</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1815724.017711356</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2351,21 +2393,27 @@
           <t>Young Adults (16-35)</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr"/>
+      <c r="F41" t="n">
+        <v>20343949.07879275</v>
+      </c>
       <c r="G41" t="n">
-        <v>0.4200691188677802</v>
+        <v>0.4200361321403991</v>
       </c>
       <c r="H41" t="n">
-        <v>0.5470894428903158</v>
+        <v>0.5469216834874255</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4529105571096842</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
+        <v>0.4530783165125744</v>
+      </c>
+      <c r="J41" t="n">
+        <v>4673551.71511542</v>
+      </c>
       <c r="K41" t="n">
-        <v>0.28667</v>
-      </c>
-      <c r="L41" t="inlineStr"/>
+        <v>0.28669</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1339860.54120644</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2394,25 +2442,25 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>3960636.046343898</v>
+        <v>3960306.426054242</v>
       </c>
       <c r="G42" t="n">
-        <v>0.3552476240928724</v>
+        <v>0.3552820512820512</v>
       </c>
       <c r="H42" t="n">
-        <v>0.7614183983881607</v>
+        <v>0.7614807872539833</v>
       </c>
       <c r="I42" t="n">
-        <v>0.2385816016118394</v>
+        <v>0.2385192127460169</v>
       </c>
       <c r="J42" t="n">
-        <v>1071320.670289866</v>
+        <v>1071423.106830045</v>
       </c>
       <c r="K42" t="n">
         <v>0.31974</v>
       </c>
       <c r="L42" t="n">
-        <v>342544.0711184818</v>
+        <v>342576.8241778386</v>
       </c>
     </row>
     <row r="43">
@@ -2442,25 +2490,25 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2090288.693656103</v>
+        <v>2090618.313945758</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5999197991608665</v>
+        <v>0.5999474479406162</v>
       </c>
       <c r="H43" t="n">
-        <v>0.6434169556597414</v>
+        <v>0.6434881853151286</v>
       </c>
       <c r="I43" t="n">
-        <v>0.3565830443402585</v>
+        <v>0.3565118146848713</v>
       </c>
       <c r="J43" t="n">
-        <v>806848.4483442836</v>
+        <v>807102.2133519298</v>
       </c>
       <c r="K43" t="n">
-        <v>0.18792</v>
+        <v>0.18794</v>
       </c>
       <c r="L43" t="n">
-        <v>151622.9604128578</v>
+        <v>151686.7899773617</v>
       </c>
     </row>
     <row r="44">
@@ -2490,25 +2538,25 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>4935513.117398672</v>
+        <v>4935242.067630201</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3715769203123537</v>
+        <v>0.371541719377372</v>
       </c>
       <c r="H44" t="n">
-        <v>0.6882956059785703</v>
+        <v>0.6881919866760036</v>
       </c>
       <c r="I44" t="n">
-        <v>0.3117043940214296</v>
+        <v>0.3118080133239964</v>
       </c>
       <c r="J44" t="n">
-        <v>1262280.980388436</v>
+        <v>1261902.082511952</v>
       </c>
       <c r="K44" t="n">
-        <v>0.3144</v>
+        <v>0.3146</v>
       </c>
       <c r="L44" t="n">
-        <v>396861.1402341242</v>
+        <v>396994.3951582601</v>
       </c>
     </row>
     <row r="45">
@@ -2538,25 +2586,25 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2410606.422601329</v>
+        <v>2410877.4723698</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5235180251842168</v>
+        <v>0.5233614796944109</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4819397178396382</v>
+        <v>0.4817713378017124</v>
       </c>
       <c r="I45" t="n">
-        <v>0.5180602821603618</v>
+        <v>0.5182286621982874</v>
       </c>
       <c r="J45" t="n">
-        <v>608205.954638844</v>
+        <v>607879.9965201912</v>
       </c>
       <c r="K45" t="n">
-        <v>0.23151</v>
+        <v>0.23149</v>
       </c>
       <c r="L45" t="n">
-        <v>140805.7605584388</v>
+        <v>140718.1403944591</v>
       </c>
     </row>
     <row r="46">
@@ -2586,25 +2634,25 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>12209854.58609926</v>
+        <v>12212952.6156911</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5016071511791675</v>
+        <v>0.5015930184236044</v>
       </c>
       <c r="H46" t="n">
-        <v>0.604502037396809</v>
+        <v>0.6044342482040291</v>
       </c>
       <c r="I46" t="n">
-        <v>0.3954979626031909</v>
+        <v>0.395565751795971</v>
       </c>
       <c r="J46" t="n">
-        <v>3702303.179975081</v>
+        <v>3702722.961754397</v>
       </c>
       <c r="K46" t="n">
-        <v>0.20493</v>
+        <v>0.20502</v>
       </c>
       <c r="L46" t="n">
-        <v>758712.9906722934</v>
+        <v>759132.2616188866</v>
       </c>
     </row>
     <row r="47">
@@ -2634,25 +2682,25 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>7395250.55390074</v>
+        <v>7392152.524308903</v>
       </c>
       <c r="G47" t="n">
-        <v>0.6738162762322309</v>
+        <v>0.674164133738602</v>
       </c>
       <c r="H47" t="n">
-        <v>0.4097319645710268</v>
+        <v>0.4096002213307511</v>
       </c>
       <c r="I47" t="n">
-        <v>0.5902680354289732</v>
+        <v>0.5903997786692489</v>
       </c>
       <c r="J47" t="n">
-        <v>2041710.846598907</v>
+        <v>2041252.575601803</v>
       </c>
       <c r="K47" t="n">
-        <v>0.14033</v>
+        <v>0.1404</v>
       </c>
       <c r="L47" t="n">
-        <v>286513.2831032247</v>
+        <v>286591.8616144931</v>
       </c>
     </row>
     <row r="48">
@@ -2682,25 +2730,25 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>512813.8008605385</v>
+        <v>512861.4406231291</v>
       </c>
       <c r="G48" t="n">
-        <v>0.5216713107397619</v>
+        <v>0.5216333895579178</v>
       </c>
       <c r="H48" t="n">
-        <v>0.6664487140502352</v>
+        <v>0.6665359374591471</v>
       </c>
       <c r="I48" t="n">
-        <v>0.3335512859497647</v>
+        <v>0.3334640625408529</v>
       </c>
       <c r="J48" t="n">
-        <v>178288.5250356449</v>
+        <v>178315.4610141023</v>
       </c>
       <c r="K48" t="n">
-        <v>0.14881</v>
+        <v>0.1489</v>
       </c>
       <c r="L48" t="n">
-        <v>26531.11541055432</v>
+        <v>26551.17214499983</v>
       </c>
     </row>
     <row r="49">
@@ -2730,25 +2778,25 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>293507.8491394616</v>
+        <v>293460.2093768709</v>
       </c>
       <c r="G49" t="n">
-        <v>0.6436019216658675</v>
+        <v>0.6437330200455247</v>
       </c>
       <c r="H49" t="n">
-        <v>0.6222601177193211</v>
+        <v>0.6222983778843957</v>
       </c>
       <c r="I49" t="n">
-        <v>0.3777398822806789</v>
+        <v>0.3777016221156043</v>
       </c>
       <c r="J49" t="n">
-        <v>117546.314997698</v>
+        <v>117558.4032719683</v>
       </c>
       <c r="K49" t="n">
-        <v>0.19537</v>
+        <v>0.19524</v>
       </c>
       <c r="L49" t="n">
-        <v>22965.02356110027</v>
+        <v>22952.1026548191</v>
       </c>
     </row>
     <row r="50">
@@ -2778,25 +2826,25 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>12649687.16308722</v>
+        <v>13364772.19962982</v>
       </c>
       <c r="G50" t="n">
-        <v>0.08523991013054658</v>
+        <v>0.1460617304773149</v>
       </c>
       <c r="H50" t="n">
-        <v>0.6141579985765711</v>
+        <v>0.6258840916288398</v>
       </c>
       <c r="I50" t="n">
-        <v>0.3858420014234289</v>
+        <v>0.3741159083711601</v>
       </c>
       <c r="J50" t="n">
-        <v>662220.8961944008</v>
+        <v>1221776.91595898</v>
       </c>
       <c r="K50" t="n">
-        <v>0.37322</v>
+        <v>0.34122</v>
       </c>
       <c r="L50" t="n">
-        <v>247154.0828776743</v>
+        <v>416894.7192635233</v>
       </c>
     </row>
     <row r="51">
@@ -2826,25 +2874,25 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>5097586.606912785</v>
+        <v>4382501.570370184</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1403527197418053</v>
+        <v>0.1690391459074733</v>
       </c>
       <c r="H51" t="n">
-        <v>0.5736665712529941</v>
+        <v>0.6332224487605967</v>
       </c>
       <c r="I51" t="n">
-        <v>0.426333428747006</v>
+        <v>0.3667775512394034</v>
       </c>
       <c r="J51" t="n">
-        <v>410435.5679058965</v>
+        <v>469100.2593029573</v>
       </c>
       <c r="K51" t="n">
-        <v>0.38593</v>
+        <v>0.33592</v>
       </c>
       <c r="L51" t="n">
-        <v>158399.3987219227</v>
+        <v>157580.1591050494</v>
       </c>
     </row>
     <row r="52">
@@ -2873,21 +2921,27 @@
           <t>Old Adults (&gt;35)</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr"/>
+      <c r="F52" t="n">
+        <v>5933766.221012953</v>
+      </c>
       <c r="G52" t="n">
-        <v>0.7597335802784808</v>
+        <v>0.6607670827858081</v>
       </c>
       <c r="H52" t="n">
-        <v>0.4807214066086709</v>
+        <v>0.4819792182088075</v>
       </c>
       <c r="I52" t="n">
-        <v>0.5192785933913292</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
+        <v>0.5180207817911925</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1889762.142747539</v>
+      </c>
       <c r="K52" t="n">
-        <v>0.33557</v>
-      </c>
-      <c r="L52" t="inlineStr"/>
+        <v>0.37522</v>
+      </c>
+      <c r="L52" t="n">
+        <v>709076.5512017317</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2915,21 +2969,27 @@
           <t>Young Adults (16-35)</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr"/>
+      <c r="F53" t="n">
+        <v>6224905.388987047</v>
+      </c>
       <c r="G53" t="n">
-        <v>0.8407100605257519</v>
+        <v>0.780993568418718</v>
       </c>
       <c r="H53" t="n">
-        <v>0.5229712343049411</v>
+        <v>0.5104143083540865</v>
       </c>
       <c r="I53" t="n">
-        <v>0.4770287656950589</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
+        <v>0.4895856916459135</v>
+      </c>
+      <c r="J53" t="n">
+        <v>2481435.853216876</v>
+      </c>
       <c r="K53" t="n">
-        <v>0.2792</v>
-      </c>
-      <c r="L53" t="inlineStr"/>
+        <v>0.2698</v>
+      </c>
+      <c r="L53" t="n">
+        <v>669491.3931979132</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2958,25 +3018,25 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>784382.8510579646</v>
+        <v>784359.4165218238</v>
       </c>
       <c r="G54" t="n">
-        <v>0.3219160334135117</v>
+        <v>0.3219071592507589</v>
       </c>
       <c r="H54" t="n">
-        <v>0.7303220414879269</v>
+        <v>0.730246262806477</v>
       </c>
       <c r="I54" t="n">
-        <v>0.2696779585120732</v>
+        <v>0.2697537371935231</v>
       </c>
       <c r="J54" t="n">
-        <v>184410.270965725</v>
+        <v>184380.5445915114</v>
       </c>
       <c r="K54" t="n">
-        <v>0.30512</v>
+        <v>0.30522</v>
       </c>
       <c r="L54" t="n">
-        <v>56267.26187706202</v>
+        <v>56276.6298202211</v>
       </c>
     </row>
     <row r="55">
@@ -3006,25 +3066,25 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>412564.0789420353</v>
+        <v>412587.5134781761</v>
       </c>
       <c r="G55" t="n">
-        <v>0.5814911248904988</v>
+        <v>0.5816603364080305</v>
       </c>
       <c r="H55" t="n">
-        <v>0.5683660871486164</v>
+        <v>0.5682717508607841</v>
       </c>
       <c r="I55" t="n">
-        <v>0.4316339128513837</v>
+        <v>0.4317282491392158</v>
       </c>
       <c r="J55" t="n">
-        <v>136352.3601681279</v>
+        <v>136377.1461376036</v>
       </c>
       <c r="K55" t="n">
-        <v>0.20125</v>
+        <v>0.2012</v>
       </c>
       <c r="L55" t="n">
-        <v>27440.91248383574</v>
+        <v>27439.08180288584</v>
       </c>
     </row>
     <row r="56">
@@ -3150,25 +3210,25 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>5087167.142407236</v>
+        <v>5087086.185148654</v>
       </c>
       <c r="G58" t="n">
-        <v>0.5024328327789203</v>
+        <v>0.5025601196640203</v>
       </c>
       <c r="H58" t="n">
-        <v>0.4679688947047583</v>
+        <v>0.4680003230930778</v>
       </c>
       <c r="I58" t="n">
-        <v>0.5320311052952418</v>
+        <v>0.5319996769069223</v>
       </c>
       <c r="J58" t="n">
-        <v>1196109.681663863</v>
+        <v>1196474.014441347</v>
       </c>
       <c r="K58" t="n">
-        <v>0.29736</v>
+        <v>0.29734</v>
       </c>
       <c r="L58" t="n">
-        <v>355675.1749395664</v>
+        <v>355759.5834539901</v>
       </c>
     </row>
     <row r="59">
@@ -3198,25 +3258,25 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2502782.977592765</v>
+        <v>2502863.934851348</v>
       </c>
       <c r="G59" t="n">
-        <v>0.6482511719574182</v>
+        <v>0.6481700895208004</v>
       </c>
       <c r="H59" t="n">
-        <v>0.4156720530824486</v>
+        <v>0.4156839138643391</v>
       </c>
       <c r="I59" t="n">
-        <v>0.5843279469175514</v>
+        <v>0.5843160861356609</v>
       </c>
       <c r="J59" t="n">
-        <v>674399.6397531027</v>
+        <v>674356.3402326106</v>
       </c>
       <c r="K59" t="n">
-        <v>0.1536</v>
+        <v>0.15345</v>
       </c>
       <c r="L59" t="n">
-        <v>103587.7846660766</v>
+        <v>103479.9804086941</v>
       </c>
     </row>
     <row r="60">
@@ -3245,21 +3305,27 @@
           <t>Old Adults (&gt;35)</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr"/>
+      <c r="F60" t="n">
+        <v>41916948.93120725</v>
+      </c>
       <c r="G60" t="n">
-        <v>0.3645573047003894</v>
+        <v>0.3645021141238993</v>
       </c>
       <c r="H60" t="n">
-        <v>0.588694381504017</v>
+        <v>0.5886826060149347</v>
       </c>
       <c r="I60" t="n">
-        <v>0.4113056184959831</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
+        <v>0.4113173939850654</v>
+      </c>
+      <c r="J60" t="n">
+        <v>8994373.515838619</v>
+      </c>
       <c r="K60" t="n">
-        <v>0.27972</v>
-      </c>
-      <c r="L60" t="inlineStr"/>
+        <v>0.27947</v>
+      </c>
+      <c r="L60" t="n">
+        <v>2513657.566471419</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3287,21 +3353,27 @@
           <t>Young Adults (16-35)</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr"/>
+      <c r="F61" t="n">
+        <v>20343949.07879275</v>
+      </c>
       <c r="G61" t="n">
-        <v>0.5315349500470276</v>
+        <v>0.531529593943565</v>
       </c>
       <c r="H61" t="n">
-        <v>0.5470894428903158</v>
+        <v>0.5469216834874255</v>
       </c>
       <c r="I61" t="n">
-        <v>0.4529105571096842</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
+        <v>0.4530783165125744</v>
+      </c>
+      <c r="J61" t="n">
+        <v>5914088.944565412</v>
+      </c>
       <c r="K61" t="n">
-        <v>0.28667</v>
-      </c>
-      <c r="L61" t="inlineStr"/>
+        <v>0.28669</v>
+      </c>
+      <c r="L61" t="n">
+        <v>1695510.159517458</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3330,25 +3402,25 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>3960636.046343898</v>
+        <v>3960306.426054242</v>
       </c>
       <c r="G62" t="n">
-        <v>0.5167421386503007</v>
+        <v>0.5167472527472526</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7614183983881607</v>
+        <v>0.7614807872539833</v>
       </c>
       <c r="I62" t="n">
-        <v>0.2385816016118394</v>
+        <v>0.2385192127460169</v>
       </c>
       <c r="J62" t="n">
-        <v>1558339.86436777</v>
+        <v>1558353.271679397</v>
       </c>
       <c r="K62" t="n">
         <v>0.31974</v>
       </c>
       <c r="L62" t="n">
-        <v>498263.5882329507</v>
+        <v>498267.8750867705</v>
       </c>
     </row>
     <row r="63">
@@ -3378,25 +3450,25 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2090288.693656103</v>
+        <v>2090618.313945758</v>
       </c>
       <c r="G63" t="n">
-        <v>0.7919103891429822</v>
+        <v>0.7919595349142745</v>
       </c>
       <c r="H63" t="n">
-        <v>0.6434169556597414</v>
+        <v>0.6434881853151286</v>
       </c>
       <c r="I63" t="n">
-        <v>0.3565830443402585</v>
+        <v>0.3565118146848713</v>
       </c>
       <c r="J63" t="n">
-        <v>1065061.812598054</v>
+        <v>1065413.805340071</v>
       </c>
       <c r="K63" t="n">
-        <v>0.18792</v>
+        <v>0.18794</v>
       </c>
       <c r="L63" t="n">
-        <v>200146.4158234263</v>
+        <v>200233.8705756129</v>
       </c>
     </row>
     <row r="64">
@@ -3426,25 +3498,25 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>4935513.117398672</v>
+        <v>4935242.067630201</v>
       </c>
       <c r="G64" t="n">
-        <v>0.5547068058531645</v>
+        <v>0.5547274627358231</v>
       </c>
       <c r="H64" t="n">
-        <v>0.6882956059785703</v>
+        <v>0.6881919866760036</v>
       </c>
       <c r="I64" t="n">
-        <v>0.3117043940214296</v>
+        <v>0.3118080133239964</v>
       </c>
       <c r="J64" t="n">
-        <v>1884390.048046778</v>
+        <v>1884073.050062811</v>
       </c>
       <c r="K64" t="n">
-        <v>0.3144</v>
+        <v>0.3146</v>
       </c>
       <c r="L64" t="n">
-        <v>592452.231105907</v>
+        <v>592729.3815497605</v>
       </c>
     </row>
     <row r="65">
@@ -3474,25 +3546,25 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>2410606.422601329</v>
+        <v>2410877.4723698</v>
       </c>
       <c r="G65" t="n">
-        <v>0.6793142485548461</v>
+        <v>0.6792119018898271</v>
       </c>
       <c r="H65" t="n">
-        <v>0.4819397178396382</v>
+        <v>0.4817713378017124</v>
       </c>
       <c r="I65" t="n">
-        <v>0.5180602821603618</v>
+        <v>0.5182286621982874</v>
       </c>
       <c r="J65" t="n">
-        <v>789204.8624241436</v>
+        <v>788898.9629086562</v>
       </c>
       <c r="K65" t="n">
-        <v>0.23151</v>
+        <v>0.23149</v>
       </c>
       <c r="L65" t="n">
-        <v>182708.8176998135</v>
+        <v>182622.2209237248</v>
       </c>
     </row>
     <row r="66">
@@ -3522,25 +3594,25 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>12209854.58609926</v>
+        <v>12212952.6156911</v>
       </c>
       <c r="G66" t="n">
-        <v>0.6505809628759245</v>
+        <v>0.650561019531791</v>
       </c>
       <c r="H66" t="n">
-        <v>0.604502037396809</v>
+        <v>0.6044342482040291</v>
       </c>
       <c r="I66" t="n">
-        <v>0.3954979626031909</v>
+        <v>0.395565751795971</v>
       </c>
       <c r="J66" t="n">
-        <v>4801861.301268505</v>
+        <v>4802393.846336192</v>
       </c>
       <c r="K66" t="n">
-        <v>0.20493</v>
+        <v>0.20502</v>
       </c>
       <c r="L66" t="n">
-        <v>984045.4364689547</v>
+        <v>984586.786375846</v>
       </c>
     </row>
     <row r="67">
@@ -3570,25 +3642,25 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>7395250.55390074</v>
+        <v>7392152.524308903</v>
       </c>
       <c r="G67" t="n">
-        <v>0.8329060248325065</v>
+        <v>0.8330969267139481</v>
       </c>
       <c r="H67" t="n">
-        <v>0.4097319645710268</v>
+        <v>0.4096002213307511</v>
       </c>
       <c r="I67" t="n">
-        <v>0.5902680354289732</v>
+        <v>0.5903997786692489</v>
       </c>
       <c r="J67" t="n">
-        <v>2523764.006721635</v>
+        <v>2522473.626637876</v>
       </c>
       <c r="K67" t="n">
-        <v>0.14033</v>
+        <v>0.1404</v>
       </c>
       <c r="L67" t="n">
-        <v>354159.8030632471</v>
+        <v>354155.2971799577</v>
       </c>
     </row>
     <row r="68">
@@ -3618,25 +3690,25 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>512813.8008605385</v>
+        <v>512861.4406231291</v>
       </c>
       <c r="G68" t="n">
-        <v>0.6739789759025965</v>
+        <v>0.6739497116855608</v>
       </c>
       <c r="H68" t="n">
-        <v>0.6664487140502352</v>
+        <v>0.6665359374591471</v>
       </c>
       <c r="I68" t="n">
-        <v>0.3335512859497647</v>
+        <v>0.3334640625408529</v>
       </c>
       <c r="J68" t="n">
-        <v>230341.8168584167</v>
+        <v>230383.3610831172</v>
       </c>
       <c r="K68" t="n">
-        <v>0.14881</v>
+        <v>0.1489</v>
       </c>
       <c r="L68" t="n">
-        <v>34277.16576670098</v>
+        <v>34304.08246527615</v>
       </c>
     </row>
     <row r="69">
@@ -3666,25 +3738,25 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>293507.8491394616</v>
+        <v>293460.2093768709</v>
       </c>
       <c r="G69" t="n">
-        <v>0.7735658360006847</v>
+        <v>0.7736985094353477</v>
       </c>
       <c r="H69" t="n">
-        <v>0.6222601177193211</v>
+        <v>0.6222983778843957</v>
       </c>
       <c r="I69" t="n">
-        <v>0.3777398822806789</v>
+        <v>0.3777016221156043</v>
       </c>
       <c r="J69" t="n">
-        <v>141282.6941141441</v>
+        <v>141292.676545766</v>
       </c>
       <c r="K69" t="n">
-        <v>0.19537</v>
+        <v>0.19524</v>
       </c>
       <c r="L69" t="n">
-        <v>27602.39994908034</v>
+        <v>27585.98216879535</v>
       </c>
     </row>
     <row r="70">
@@ -3714,25 +3786,25 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>12649687.16308722</v>
+        <v>13364772.19962982</v>
       </c>
       <c r="G70" t="n">
-        <v>0.1656228242934096</v>
+        <v>0.2147354809692472</v>
       </c>
       <c r="H70" t="n">
-        <v>0.6141579985765711</v>
+        <v>0.6258840916288398</v>
       </c>
       <c r="I70" t="n">
-        <v>0.3858420014234289</v>
+        <v>0.3741159083711601</v>
       </c>
       <c r="J70" t="n">
-        <v>1286708.244598735</v>
+        <v>1796218.987877338</v>
       </c>
       <c r="K70" t="n">
-        <v>0.37322</v>
+        <v>0.34122</v>
       </c>
       <c r="L70" t="n">
-        <v>480225.2510491398</v>
+        <v>612905.8430435054</v>
       </c>
     </row>
     <row r="71">
@@ -3762,25 +3834,25 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>5097586.606912785</v>
+        <v>4382501.570370184</v>
       </c>
       <c r="G71" t="n">
-        <v>0.2570899746582163</v>
+        <v>0.251228605321132</v>
       </c>
       <c r="H71" t="n">
-        <v>0.5736665712529941</v>
+        <v>0.6332224487605967</v>
       </c>
       <c r="I71" t="n">
-        <v>0.426333428747006</v>
+        <v>0.3667775512394034</v>
       </c>
       <c r="J71" t="n">
-        <v>751812.0770717619</v>
+        <v>697184.0946532675</v>
       </c>
       <c r="K71" t="n">
-        <v>0.38593</v>
+        <v>0.33592</v>
       </c>
       <c r="L71" t="n">
-        <v>290146.8349043051</v>
+        <v>234198.0810759256</v>
       </c>
     </row>
     <row r="72">
@@ -3809,21 +3881,27 @@
           <t>Old Adults (&gt;35)</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr"/>
+      <c r="F72" t="n">
+        <v>5933766.221012953</v>
+      </c>
       <c r="G72" t="n">
-        <v>0.8903497045664404</v>
+        <v>0.8287204336399474</v>
       </c>
       <c r="H72" t="n">
-        <v>0.4807214066086709</v>
+        <v>0.4819792182088075</v>
       </c>
       <c r="I72" t="n">
-        <v>0.5192785933913292</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
+        <v>0.5180207817911925</v>
+      </c>
+      <c r="J72" t="n">
+        <v>2370100.665141264</v>
+      </c>
       <c r="K72" t="n">
-        <v>0.33557</v>
-      </c>
-      <c r="L72" t="inlineStr"/>
+        <v>0.37522</v>
+      </c>
+      <c r="L72" t="n">
+        <v>889309.1715743053</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3851,21 +3929,27 @@
           <t>Young Adults (16-35)</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr"/>
+      <c r="F73" t="n">
+        <v>6224905.388987047</v>
+      </c>
       <c r="G73" t="n">
-        <v>0.9167255425744784</v>
+        <v>0.8820507133880386</v>
       </c>
       <c r="H73" t="n">
-        <v>0.5229712343049411</v>
+        <v>0.5104143083540865</v>
       </c>
       <c r="I73" t="n">
-        <v>0.4770287656950589</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
+        <v>0.4895856916459135</v>
+      </c>
+      <c r="J73" t="n">
+        <v>2802522.777477132</v>
+      </c>
       <c r="K73" t="n">
-        <v>0.2792</v>
-      </c>
-      <c r="L73" t="inlineStr"/>
+        <v>0.2698</v>
+      </c>
+      <c r="L73" t="n">
+        <v>756120.6453633303</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3894,25 +3978,25 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>784382.8510579646</v>
+        <v>784359.4165218238</v>
       </c>
       <c r="G74" t="n">
-        <v>0.4977998797009337</v>
+        <v>0.4977419116013918</v>
       </c>
       <c r="H74" t="n">
-        <v>0.7303220414879269</v>
+        <v>0.730246262806477</v>
       </c>
       <c r="I74" t="n">
-        <v>0.2696779585120732</v>
+        <v>0.2697537371935231</v>
       </c>
       <c r="J74" t="n">
-        <v>285165.6990456115</v>
+        <v>285094.3885208673</v>
       </c>
       <c r="K74" t="n">
-        <v>0.30512</v>
+        <v>0.30522</v>
       </c>
       <c r="L74" t="n">
-        <v>87009.758092797</v>
+        <v>87016.50926433911</v>
       </c>
     </row>
     <row r="75">
@@ -3942,25 +4026,25 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>412564.0789420353</v>
+        <v>412587.5134781761</v>
       </c>
       <c r="G75" t="n">
-        <v>0.7617834817579502</v>
+        <v>0.7618014107433534</v>
       </c>
       <c r="H75" t="n">
-        <v>0.5683660871486164</v>
+        <v>0.5682717508607841</v>
       </c>
       <c r="I75" t="n">
-        <v>0.4316339128513837</v>
+        <v>0.4317282491392158</v>
       </c>
       <c r="J75" t="n">
-        <v>178628.6518033281</v>
+        <v>178613.3518443988</v>
       </c>
       <c r="K75" t="n">
-        <v>0.20125</v>
+        <v>0.2012</v>
       </c>
       <c r="L75" t="n">
-        <v>35949.01617541979</v>
+        <v>35937.00639109303</v>
       </c>
     </row>
     <row r="76">
@@ -4086,25 +4170,25 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>5087167.142407236</v>
+        <v>5087086.185148654</v>
       </c>
       <c r="G78" t="n">
-        <v>0.6367068557934403</v>
+        <v>0.6367218962144746</v>
       </c>
       <c r="H78" t="n">
-        <v>0.4679688947047583</v>
+        <v>0.4680003230930778</v>
       </c>
       <c r="I78" t="n">
-        <v>0.5320311052952418</v>
+        <v>0.5319996769069223</v>
       </c>
       <c r="J78" t="n">
-        <v>1515767.252677527</v>
+        <v>1515880.73434029</v>
       </c>
       <c r="K78" t="n">
-        <v>0.29736</v>
+        <v>0.29734</v>
       </c>
       <c r="L78" t="n">
-        <v>450728.5502561894</v>
+        <v>450731.9775487419</v>
       </c>
     </row>
     <row r="79">
@@ -4134,25 +4218,25 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>2502782.977592765</v>
+        <v>2502863.934851348</v>
       </c>
       <c r="G79" t="n">
-        <v>0.8200555646348993</v>
+        <v>0.8201685097419694</v>
       </c>
       <c r="H79" t="n">
-        <v>0.4156720530824486</v>
+        <v>0.4156839138643391</v>
       </c>
       <c r="I79" t="n">
-        <v>0.5843279469175514</v>
+        <v>0.5843160861356609</v>
       </c>
       <c r="J79" t="n">
-        <v>853134.0956891185</v>
+        <v>853303.5441554106</v>
       </c>
       <c r="K79" t="n">
-        <v>0.1536</v>
+        <v>0.15345</v>
       </c>
       <c r="L79" t="n">
-        <v>131041.3970978486</v>
+        <v>130939.4288506478</v>
       </c>
     </row>
     <row r="80">
@@ -4181,21 +4265,27 @@
           <t>Old Adults (&gt;35)</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr"/>
+      <c r="F80" t="n">
+        <v>41916948.93120725</v>
+      </c>
       <c r="G80" t="n">
-        <v>0.5444985159497174</v>
+        <v>0.5444935800457736</v>
       </c>
       <c r="H80" t="n">
-        <v>0.588694381504017</v>
+        <v>0.5886826060149347</v>
       </c>
       <c r="I80" t="n">
-        <v>0.4113056184959831</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
+        <v>0.4113173939850654</v>
+      </c>
+      <c r="J80" t="n">
+        <v>13435803.10275835</v>
+      </c>
       <c r="K80" t="n">
-        <v>0.27972</v>
-      </c>
-      <c r="L80" t="inlineStr"/>
+        <v>0.27947</v>
+      </c>
+      <c r="L80" t="n">
+        <v>3754903.893127875</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -4223,21 +4313,27 @@
           <t>Young Adults (16-35)</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr"/>
+      <c r="F81" t="n">
+        <v>20343949.07879275</v>
+      </c>
       <c r="G81" t="n">
-        <v>0.7026710135802263</v>
+        <v>0.7025550584996558</v>
       </c>
       <c r="H81" t="n">
-        <v>0.5470894428903158</v>
+        <v>0.5469216834874255</v>
       </c>
       <c r="I81" t="n">
-        <v>0.4529105571096842</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
+        <v>0.4530783165125744</v>
+      </c>
+      <c r="J81" t="n">
+        <v>7817011.793443949</v>
+      </c>
       <c r="K81" t="n">
-        <v>0.28667</v>
-      </c>
-      <c r="L81" t="inlineStr"/>
+        <v>0.28669</v>
+      </c>
+      <c r="L81" t="n">
+        <v>2241059.111062446</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -4266,25 +4362,25 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>3960636.046343898</v>
+        <v>3960306.426054242</v>
       </c>
       <c r="G82" t="n">
-        <v>0.6690087983818908</v>
+        <v>0.6690402930402929</v>
       </c>
       <c r="H82" t="n">
-        <v>0.7614183983881607</v>
+        <v>0.7614807872539833</v>
       </c>
       <c r="I82" t="n">
-        <v>0.2385816016118394</v>
+        <v>0.2385192127460169</v>
       </c>
       <c r="J82" t="n">
-        <v>2017530.605989169</v>
+        <v>2017622.975258723</v>
       </c>
       <c r="K82" t="n">
         <v>0.31974</v>
       </c>
       <c r="L82" t="n">
-        <v>645085.2359589768</v>
+        <v>645114.770109224</v>
       </c>
     </row>
     <row r="83">
@@ -4314,25 +4410,25 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>2090288.693656103</v>
+        <v>2090618.313945758</v>
       </c>
       <c r="G83" t="n">
-        <v>0.8904129942796363</v>
+        <v>0.8904946462589504</v>
       </c>
       <c r="H83" t="n">
-        <v>0.6434169556597414</v>
+        <v>0.6434881853151286</v>
       </c>
       <c r="I83" t="n">
-        <v>0.3565830443402585</v>
+        <v>0.3565118146848713</v>
       </c>
       <c r="J83" t="n">
-        <v>1197540.644307803</v>
+        <v>1197971.926442435</v>
       </c>
       <c r="K83" t="n">
-        <v>0.18792</v>
+        <v>0.18794</v>
       </c>
       <c r="L83" t="n">
-        <v>225041.8378783224</v>
+        <v>225146.8438555913</v>
       </c>
     </row>
     <row r="84">
@@ -4362,25 +4458,25 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>4935513.117398672</v>
+        <v>4935242.067630201</v>
       </c>
       <c r="G84" t="n">
-        <v>0.6706923530661453</v>
+        <v>0.6707001815081678</v>
       </c>
       <c r="H84" t="n">
-        <v>0.6882956059785703</v>
+        <v>0.6881919866760036</v>
       </c>
       <c r="I84" t="n">
-        <v>0.3117043940214296</v>
+        <v>0.3118080133239964</v>
       </c>
       <c r="J84" t="n">
-        <v>2278403.621666526</v>
+        <v>2277962.101280643</v>
       </c>
       <c r="K84" t="n">
-        <v>0.3144</v>
+        <v>0.3146</v>
       </c>
       <c r="L84" t="n">
-        <v>716330.0986519558</v>
+        <v>716646.8770628902</v>
       </c>
     </row>
     <row r="85">
@@ -4410,25 +4506,25 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>2410606.422601329</v>
+        <v>2410877.4723698</v>
       </c>
       <c r="G85" t="n">
-        <v>0.7877112899152824</v>
+        <v>0.7876156011258545</v>
       </c>
       <c r="H85" t="n">
-        <v>0.4819397178396382</v>
+        <v>0.4817713378017124</v>
       </c>
       <c r="I85" t="n">
-        <v>0.5180602821603618</v>
+        <v>0.5182286621982874</v>
       </c>
       <c r="J85" t="n">
-        <v>915136.9657121853</v>
+        <v>914808.9560416031</v>
       </c>
       <c r="K85" t="n">
-        <v>0.23151</v>
+        <v>0.23149</v>
       </c>
       <c r="L85" t="n">
-        <v>211863.358932028</v>
+        <v>211769.1252340707</v>
       </c>
     </row>
     <row r="86">
@@ -4458,25 +4554,25 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>12209854.58609926</v>
+        <v>12212952.6156911</v>
       </c>
       <c r="G86" t="n">
-        <v>0.7878833440670251</v>
+        <v>0.7879207646488432</v>
       </c>
       <c r="H86" t="n">
-        <v>0.604502037396809</v>
+        <v>0.6044342482040291</v>
       </c>
       <c r="I86" t="n">
-        <v>0.3954979626031909</v>
+        <v>0.395565751795971</v>
       </c>
       <c r="J86" t="n">
-        <v>5815273.971536421</v>
+        <v>5816373.434537147</v>
       </c>
       <c r="K86" t="n">
-        <v>0.20493</v>
+        <v>0.20502</v>
       </c>
       <c r="L86" t="n">
-        <v>1191724.094986959</v>
+        <v>1192472.881548806</v>
       </c>
     </row>
     <row r="87">
@@ -4506,25 +4602,25 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>7395250.55390074</v>
+        <v>7392152.524308903</v>
       </c>
       <c r="G87" t="n">
-        <v>0.9403963951768474</v>
+        <v>0.9404255319148936</v>
       </c>
       <c r="H87" t="n">
-        <v>0.4097319645710268</v>
+        <v>0.4096002213307511</v>
       </c>
       <c r="I87" t="n">
-        <v>0.5902680354289732</v>
+        <v>0.5903997786692489</v>
       </c>
       <c r="J87" t="n">
-        <v>2849467.41101479</v>
+        <v>2847446.108616761</v>
       </c>
       <c r="K87" t="n">
-        <v>0.14033</v>
+        <v>0.1404</v>
       </c>
       <c r="L87" t="n">
-        <v>399865.7617877055</v>
+        <v>399781.4336497933</v>
       </c>
     </row>
     <row r="88">
@@ -4554,25 +4650,25 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>512813.8008605385</v>
+        <v>512861.4406231291</v>
       </c>
       <c r="G88" t="n">
-        <v>0.7795240440746598</v>
+        <v>0.7795081002628174</v>
       </c>
       <c r="H88" t="n">
-        <v>0.6664487140502352</v>
+        <v>0.6665359374591471</v>
       </c>
       <c r="I88" t="n">
-        <v>0.3335512859497647</v>
+        <v>0.3334640625408529</v>
       </c>
       <c r="J88" t="n">
-        <v>266413.3318943872</v>
+        <v>266467.5019756536</v>
       </c>
       <c r="K88" t="n">
-        <v>0.14881</v>
+        <v>0.1489</v>
       </c>
       <c r="L88" t="n">
-        <v>39644.96791920376</v>
+        <v>39677.01104417482</v>
       </c>
     </row>
     <row r="89">
@@ -4602,25 +4698,25 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>293507.8491394616</v>
+        <v>293460.2093768709</v>
       </c>
       <c r="G89" t="n">
-        <v>0.9250113477615531</v>
+        <v>0.9251046332329833</v>
       </c>
       <c r="H89" t="n">
-        <v>0.6222601177193211</v>
+        <v>0.6222983778843957</v>
       </c>
       <c r="I89" t="n">
-        <v>0.3777398822806789</v>
+        <v>0.3777016221156043</v>
       </c>
       <c r="J89" t="n">
-        <v>168942.4341353566</v>
+        <v>168942.4344500432</v>
       </c>
       <c r="K89" t="n">
-        <v>0.19537</v>
+        <v>0.19524</v>
       </c>
       <c r="L89" t="n">
-        <v>33006.28335702461</v>
+        <v>32984.32090202644</v>
       </c>
     </row>
     <row r="90">
@@ -4650,25 +4746,25 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>12649687.16308722</v>
+        <v>13364772.19962982</v>
       </c>
       <c r="G90" t="n">
-        <v>0.3720158870143739</v>
+        <v>0.4374543205712037</v>
       </c>
       <c r="H90" t="n">
-        <v>0.6141579985765711</v>
+        <v>0.6258840916288398</v>
       </c>
       <c r="I90" t="n">
-        <v>0.3858420014234289</v>
+        <v>0.3741159083711601</v>
       </c>
       <c r="J90" t="n">
-        <v>2890156.661590956</v>
+        <v>3659217.160537655</v>
       </c>
       <c r="K90" t="n">
-        <v>0.37322</v>
+        <v>0.34122</v>
       </c>
       <c r="L90" t="n">
-        <v>1078664.269238977</v>
+        <v>1248598.079518659</v>
       </c>
     </row>
     <row r="91">
@@ -4698,25 +4794,25 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>5097586.606912785</v>
+        <v>4382501.570370184</v>
       </c>
       <c r="G91" t="n">
-        <v>0.4912223187595219</v>
+        <v>0.4566175224538214</v>
       </c>
       <c r="H91" t="n">
-        <v>0.5736665712529941</v>
+        <v>0.6332224487605967</v>
       </c>
       <c r="I91" t="n">
-        <v>0.426333428747006</v>
+        <v>0.3667775512394034</v>
       </c>
       <c r="J91" t="n">
-        <v>1436488.810042367</v>
+        <v>1267158.545054455</v>
       </c>
       <c r="K91" t="n">
-        <v>0.38593</v>
+        <v>0.33592</v>
       </c>
       <c r="L91" t="n">
-        <v>554384.1264596507</v>
+        <v>425663.8984546924</v>
       </c>
     </row>
     <row r="92">
@@ -4745,21 +4841,27 @@
           <t>Old Adults (&gt;35)</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr"/>
+      <c r="F92" t="n">
+        <v>5933766.221012953</v>
+      </c>
       <c r="G92" t="n">
-        <v>0.9612140070989936</v>
+        <v>0.9472322601839683</v>
       </c>
       <c r="H92" t="n">
-        <v>0.4807214066086709</v>
+        <v>0.4819792182088075</v>
       </c>
       <c r="I92" t="n">
-        <v>0.5192785933913292</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
+        <v>0.5180207817911925</v>
+      </c>
+      <c r="J92" t="n">
+        <v>2709038.800991702</v>
+      </c>
       <c r="K92" t="n">
-        <v>0.33557</v>
-      </c>
-      <c r="L92" t="inlineStr"/>
+        <v>0.37522</v>
+      </c>
+      <c r="L92" t="n">
+        <v>1016485.538908107</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4787,21 +4889,27 @@
           <t>Young Adults (16-35)</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr"/>
+      <c r="F93" t="n">
+        <v>6224905.388987047</v>
+      </c>
       <c r="G93" t="n">
-        <v>0.9537932831510346</v>
+        <v>0.9496562430694168</v>
       </c>
       <c r="H93" t="n">
-        <v>0.5229712343049411</v>
+        <v>0.5104143083540865</v>
       </c>
       <c r="I93" t="n">
-        <v>0.4770287656950589</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
+        <v>0.4895856916459135</v>
+      </c>
+      <c r="J93" t="n">
+        <v>3017324.527466893</v>
+      </c>
       <c r="K93" t="n">
-        <v>0.2792</v>
-      </c>
-      <c r="L93" t="inlineStr"/>
+        <v>0.2698</v>
+      </c>
+      <c r="L93" t="n">
+        <v>814074.1575105677</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4830,25 +4938,25 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>784382.8510579646</v>
+        <v>784359.4165218238</v>
       </c>
       <c r="G94" t="n">
-        <v>0.6316702154607436</v>
+        <v>0.6316354482860738</v>
       </c>
       <c r="H94" t="n">
-        <v>0.7303220414879269</v>
+        <v>0.730246262806477</v>
       </c>
       <c r="I94" t="n">
-        <v>0.2696779585120732</v>
+        <v>0.2697537371935231</v>
       </c>
       <c r="J94" t="n">
-        <v>361853.6000176883</v>
+        <v>361785.3303087578</v>
       </c>
       <c r="K94" t="n">
-        <v>0.30512</v>
+        <v>0.30522</v>
       </c>
       <c r="L94" t="n">
-        <v>110408.770437397</v>
+        <v>110424.1185168391</v>
       </c>
     </row>
     <row r="95">
@@ -4878,25 +4986,25 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>412564.0789420353</v>
+        <v>412587.5134781761</v>
       </c>
       <c r="G95" t="n">
-        <v>0.8754074338300184</v>
+        <v>0.8753843371314887</v>
       </c>
       <c r="H95" t="n">
-        <v>0.5683660871486164</v>
+        <v>0.5682717508607841</v>
       </c>
       <c r="I95" t="n">
-        <v>0.4316339128513837</v>
+        <v>0.4317282491392158</v>
       </c>
       <c r="J95" t="n">
-        <v>205272.0404527667</v>
+        <v>205244.2124707716</v>
       </c>
       <c r="K95" t="n">
-        <v>0.20125</v>
+        <v>0.2012</v>
       </c>
       <c r="L95" t="n">
-        <v>41310.99814111929</v>
+        <v>41295.13554911924</v>
       </c>
     </row>
     <row r="96">
@@ -5022,25 +5130,25 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>5087167.142407236</v>
+        <v>5087086.185148654</v>
       </c>
       <c r="G98" t="n">
-        <v>0.7665263005871525</v>
+        <v>0.7665400989529397</v>
       </c>
       <c r="H98" t="n">
-        <v>0.4679688947047583</v>
+        <v>0.4680003230930778</v>
       </c>
       <c r="I98" t="n">
-        <v>0.5320311052952418</v>
+        <v>0.5319996769069223</v>
       </c>
       <c r="J98" t="n">
-        <v>1824820.094481582</v>
+        <v>1824946.456232214</v>
       </c>
       <c r="K98" t="n">
-        <v>0.29736</v>
+        <v>0.29734</v>
       </c>
       <c r="L98" t="n">
-        <v>542628.5032950431</v>
+        <v>542629.5792960864</v>
       </c>
     </row>
     <row r="99">
@@ -5070,25 +5178,25 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>2502782.977592765</v>
+        <v>2502863.934851348</v>
       </c>
       <c r="G99" t="n">
-        <v>0.866298119970618</v>
+        <v>0.8664428646656134</v>
       </c>
       <c r="H99" t="n">
-        <v>0.4156720530824486</v>
+        <v>0.4156839138643391</v>
       </c>
       <c r="I99" t="n">
-        <v>0.5843279469175514</v>
+        <v>0.5843160861356609</v>
       </c>
       <c r="J99" t="n">
-        <v>901241.9341454756</v>
+        <v>901447.3958039864</v>
       </c>
       <c r="K99" t="n">
-        <v>0.1536</v>
+        <v>0.15345</v>
       </c>
       <c r="L99" t="n">
-        <v>138430.7610847451</v>
+        <v>138327.1028861217</v>
       </c>
     </row>
     <row r="100">
@@ -5117,21 +5225,27 @@
           <t>Old Adults (&gt;35)</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr"/>
+      <c r="F100" t="n">
+        <v>41916948.93120725</v>
+      </c>
       <c r="G100" t="n">
-        <v>0.7511755685309366</v>
+        <v>0.7511928313743744</v>
       </c>
       <c r="H100" t="n">
-        <v>0.588694381504017</v>
+        <v>0.5886826060149347</v>
       </c>
       <c r="I100" t="n">
-        <v>0.4113056184959831</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
+        <v>0.4113173939850654</v>
+      </c>
+      <c r="J100" t="n">
+        <v>18536268.09282338</v>
+      </c>
       <c r="K100" t="n">
-        <v>0.27972</v>
-      </c>
-      <c r="L100" t="inlineStr"/>
+        <v>0.27947</v>
+      </c>
+      <c r="L100" t="n">
+        <v>5180330.843901349</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -5159,21 +5273,27 @@
           <t>Young Adults (16-35)</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr"/>
+      <c r="F101" t="n">
+        <v>20343949.07879275</v>
+      </c>
       <c r="G101" t="n">
-        <v>0.8973924755719465</v>
+        <v>0.8974105299380593</v>
       </c>
       <c r="H101" t="n">
-        <v>0.5470894428903158</v>
+        <v>0.5469216834874255</v>
       </c>
       <c r="I101" t="n">
-        <v>0.4529105571096842</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
+        <v>0.4530783165125744</v>
+      </c>
+      <c r="J101" t="n">
+        <v>9985080.331024377</v>
+      </c>
       <c r="K101" t="n">
-        <v>0.28667</v>
-      </c>
-      <c r="L101" t="inlineStr"/>
+        <v>0.28669</v>
+      </c>
+      <c r="L101" t="n">
+        <v>2862622.680101378</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
